--- a/script/Pr_temp_spreadsheets/05_00_ARC05_6_2.xlsx
+++ b/script/Pr_temp_spreadsheets/05_00_ARC05_6_2.xlsx
@@ -1473,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a15b5750-adef-4b38-807b-c1ddfd79b1f1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5f54f0ba-0f87-46c5-9c5e-d85ade133aaf}">
   <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -3027,7 +3027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b4f1134c-ab7d-4c1e-bf99-89d3273eb3c6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ae683711-92da-4d8c-8269-601fd5364804}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
